--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N2">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O2">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P2">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q2">
-        <v>188.5461665611917</v>
+        <v>190.3750033092535</v>
       </c>
       <c r="R2">
-        <v>188.5461665611917</v>
+        <v>761.5000132370139</v>
       </c>
       <c r="S2">
-        <v>0.01894383127024345</v>
+        <v>0.01724627493659134</v>
       </c>
       <c r="T2">
-        <v>0.01894383127024345</v>
+        <v>0.01022626965686971</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N3">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O3">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P3">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q3">
-        <v>22.89126011403099</v>
+        <v>25.70994331665067</v>
       </c>
       <c r="R3">
-        <v>22.89126011403099</v>
+        <v>154.259659899904</v>
       </c>
       <c r="S3">
-        <v>0.002299957496206737</v>
+        <v>0.002329091232228933</v>
       </c>
       <c r="T3">
-        <v>0.002299957496206737</v>
+        <v>0.002071570389877903</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N4">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O4">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P4">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q4">
-        <v>73.53839626535347</v>
+        <v>0.984651002221</v>
       </c>
       <c r="R4">
-        <v>73.53839626535347</v>
+        <v>5.907906013326</v>
       </c>
       <c r="S4">
-        <v>0.007388635877054726</v>
+        <v>8.92005862413984E-05</v>
       </c>
       <c r="T4">
-        <v>0.007388635877054726</v>
+        <v>7.933793690021849E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N5">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O5">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P5">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q5">
-        <v>28.17125669630707</v>
+        <v>1.779122763356667</v>
       </c>
       <c r="R5">
-        <v>28.17125669630707</v>
+        <v>10.67473658014</v>
       </c>
       <c r="S5">
-        <v>0.00283045549670381</v>
+        <v>0.0001611726318552127</v>
       </c>
       <c r="T5">
-        <v>0.00283045549670381</v>
+        <v>0.0001433522427931808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N6">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O6">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P6">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q6">
-        <v>5258.290033545559</v>
+        <v>74.04086693110399</v>
       </c>
       <c r="R6">
-        <v>5258.290033545559</v>
+        <v>444.245201586624</v>
       </c>
       <c r="S6">
-        <v>0.5283170747105124</v>
+        <v>0.00670744123672105</v>
       </c>
       <c r="T6">
-        <v>0.5283170747105124</v>
+        <v>0.00596581897074935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N7">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O7">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P7">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q7">
-        <v>638.4053683416736</v>
+        <v>30.266079359522</v>
       </c>
       <c r="R7">
-        <v>638.4053683416736</v>
+        <v>121.064317438088</v>
       </c>
       <c r="S7">
-        <v>0.06414261186242304</v>
+        <v>0.002741836463892721</v>
       </c>
       <c r="T7">
-        <v>0.06414261186242304</v>
+        <v>0.001625786387952993</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N8">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O8">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P8">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q8">
-        <v>2050.883469113307</v>
+        <v>5741.741433702901</v>
       </c>
       <c r="R8">
-        <v>2050.883469113307</v>
+        <v>34450.44860221741</v>
       </c>
       <c r="S8">
-        <v>0.2060587658842957</v>
+        <v>0.5201504906586922</v>
       </c>
       <c r="T8">
-        <v>0.2060587658842957</v>
+        <v>0.462638963995334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N9">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O9">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P9">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q9">
-        <v>785.6571205894519</v>
+        <v>775.4161220397511</v>
       </c>
       <c r="R9">
-        <v>785.6571205894519</v>
+        <v>6978.74509835776</v>
       </c>
       <c r="S9">
-        <v>0.07893746237413728</v>
+        <v>0.07024577491005611</v>
       </c>
       <c r="T9">
-        <v>0.07893746237413728</v>
+        <v>0.09371835587894022</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N10">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O10">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P10">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q10">
-        <v>3.426862014292272</v>
+        <v>29.69723629107666</v>
       </c>
       <c r="R10">
-        <v>3.426862014292272</v>
+        <v>267.27512661969</v>
       </c>
       <c r="S10">
-        <v>0.0003443076938087236</v>
+        <v>0.002690304362599748</v>
       </c>
       <c r="T10">
-        <v>0.0003443076938087236</v>
+        <v>0.003589267852758708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N11">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O11">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P11">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q11">
-        <v>0.4160529549594295</v>
+        <v>53.65863536934445</v>
       </c>
       <c r="R11">
-        <v>0.4160529549594295</v>
+        <v>482.9277183241001</v>
       </c>
       <c r="S11">
-        <v>4.180215976801461E-05</v>
+        <v>0.004860993104219358</v>
       </c>
       <c r="T11">
-        <v>4.180215976801461E-05</v>
+        <v>0.006485290855565567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N12">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O12">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P12">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q12">
-        <v>1.336574173582708</v>
+        <v>2233.084733057173</v>
       </c>
       <c r="R12">
-        <v>1.336574173582708</v>
+        <v>20097.76259751456</v>
       </c>
       <c r="S12">
-        <v>0.0001342898457513772</v>
+        <v>0.202297531679868</v>
       </c>
       <c r="T12">
-        <v>0.0001342898457513772</v>
+        <v>0.2698951231113966</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N13">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O13">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P13">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q13">
-        <v>0.5120178852117911</v>
+        <v>912.8299349889533</v>
       </c>
       <c r="R13">
-        <v>0.5120178852117911</v>
+        <v>5476.979609933719</v>
       </c>
       <c r="S13">
-        <v>5.144406063355896E-05</v>
+        <v>0.08269423903093413</v>
       </c>
       <c r="T13">
-        <v>5.144406063355896E-05</v>
+        <v>0.073550977574214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.896208601715</v>
+        <v>6.9164455</v>
       </c>
       <c r="N14">
-        <v>6.896208601715</v>
+        <v>13.832891</v>
       </c>
       <c r="O14">
-        <v>0.6021009896685757</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P14">
-        <v>0.6021009896685757</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q14">
-        <v>8.680310570992567</v>
+        <v>7.001690690787501</v>
       </c>
       <c r="R14">
-        <v>8.680310570992567</v>
+        <v>42.010144144725</v>
       </c>
       <c r="S14">
-        <v>0.0008721383299873463</v>
+        <v>0.0006342906399225992</v>
       </c>
       <c r="T14">
-        <v>0.0008721383299873463</v>
+        <v>0.0005641589689824606</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8372639326572699</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N15">
-        <v>0.8372639326572699</v>
+        <v>2.802176</v>
       </c>
       <c r="O15">
-        <v>0.07310066611694117</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P15">
-        <v>0.07310066611694117</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q15">
-        <v>1.053870522934634</v>
+        <v>0.9455709397333335</v>
       </c>
       <c r="R15">
-        <v>1.053870522934634</v>
+        <v>8.510138457600002</v>
       </c>
       <c r="S15">
-        <v>0.0001058857134635915</v>
+        <v>8.566028162952342E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001058857134635915</v>
+        <v>0.0001142836102060947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>2.6897185454941</v>
+        <v>0.035773</v>
       </c>
       <c r="N16">
-        <v>2.6897185454941</v>
+        <v>0.107319</v>
       </c>
       <c r="O16">
-        <v>0.2348366025020147</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P16">
-        <v>0.2348366025020147</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q16">
-        <v>3.385569328288727</v>
+        <v>0.036213902225</v>
       </c>
       <c r="R16">
-        <v>3.385569328288727</v>
+        <v>0.325925120025</v>
       </c>
       <c r="S16">
-        <v>0.0003401588866989676</v>
+        <v>3.280656091622661E-06</v>
       </c>
       <c r="T16">
-        <v>0.0003401588866989676</v>
+        <v>4.376885236226375E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>1.03038351982162</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N17">
-        <v>1.03038351982162</v>
+        <v>0.19391</v>
       </c>
       <c r="O17">
-        <v>0.08996174171246844</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P17">
-        <v>0.08996174171246844</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q17">
-        <v>1.296951626007929</v>
+        <v>0.06543331358333335</v>
       </c>
       <c r="R17">
-        <v>1.296951626007929</v>
+        <v>0.5888998222500001</v>
       </c>
       <c r="S17">
-        <v>0.0001303088427458868</v>
+        <v>5.927673783081751E-06</v>
       </c>
       <c r="T17">
-        <v>0.0001303088427458868</v>
+        <v>7.908402204238359E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.4059925611064</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>21.4059925611064</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.02463352307734737</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.02463352307734737</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.896208601715</v>
+        <v>2.689952</v>
       </c>
       <c r="N18">
-        <v>6.896208601715</v>
+        <v>8.069856</v>
       </c>
       <c r="O18">
-        <v>0.6021009896685757</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P18">
-        <v>0.6021009896685757</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q18">
-        <v>147.6201900281493</v>
+        <v>2.7231056584</v>
       </c>
       <c r="R18">
-        <v>147.6201900281493</v>
+        <v>24.5079509256</v>
       </c>
       <c r="S18">
-        <v>0.01483186862389455</v>
+        <v>0.0002466890508196841</v>
       </c>
       <c r="T18">
-        <v>0.01483186862389455</v>
+        <v>0.0003291200401128675</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.4059925611064</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>21.4059925611064</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.02463352307734737</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.02463352307734737</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8372639326572699</v>
+        <v>1.099586</v>
       </c>
       <c r="N19">
-        <v>0.8372639326572699</v>
+        <v>2.199172</v>
       </c>
       <c r="O19">
-        <v>0.07310066611694117</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P19">
-        <v>0.07310066611694117</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q19">
-        <v>17.92246551414421</v>
+        <v>1.11313839745</v>
       </c>
       <c r="R19">
-        <v>17.92246551414421</v>
+        <v>6.6788303847</v>
       </c>
       <c r="S19">
-        <v>0.001800726945761135</v>
+        <v>0.0001008403966444804</v>
       </c>
       <c r="T19">
-        <v>0.001800726945761135</v>
+        <v>8.969076732659109E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.6897185454941</v>
+        <v>6.9164455</v>
       </c>
       <c r="N20">
-        <v>2.6897185454941</v>
+        <v>13.832891</v>
       </c>
       <c r="O20">
-        <v>0.2348366025020147</v>
+        <v>0.5891123781422892</v>
       </c>
       <c r="P20">
-        <v>0.2348366025020147</v>
+        <v>0.5084626450322738</v>
       </c>
       <c r="Q20">
-        <v>57.57609517631664</v>
+        <v>9.130627947251501</v>
       </c>
       <c r="R20">
-        <v>57.57609517631664</v>
+        <v>54.783767683509</v>
       </c>
       <c r="S20">
-        <v>0.005784852867139229</v>
+        <v>0.0008271533404321149</v>
       </c>
       <c r="T20">
-        <v>0.005784852867139229</v>
+        <v>0.0007356974017234807</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.03038351982162</v>
+        <v>0.9340586666666667</v>
       </c>
       <c r="N21">
-        <v>1.03038351982162</v>
+        <v>2.802176</v>
       </c>
       <c r="O21">
-        <v>0.08996174171246844</v>
+        <v>0.07955900504737815</v>
       </c>
       <c r="P21">
-        <v>0.08996174171246844</v>
+        <v>0.1030010155365178</v>
       </c>
       <c r="Q21">
-        <v>22.05638196038823</v>
+        <v>1.233081669802667</v>
       </c>
       <c r="R21">
-        <v>22.05638196038823</v>
+        <v>11.097735028224</v>
       </c>
       <c r="S21">
-        <v>0.002216074640552455</v>
+        <v>0.0001117061858280963</v>
       </c>
       <c r="T21">
-        <v>0.002216074640552455</v>
+        <v>0.0001490327367122242</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>55.9859543366913</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>55.9859543366913</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.06442734641821805</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.06442734641821805</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>6.896208601715</v>
+        <v>0.035773</v>
       </c>
       <c r="N22">
-        <v>6.896208601715</v>
+        <v>0.107319</v>
       </c>
       <c r="O22">
-        <v>0.6021009896685757</v>
+        <v>0.003046986649903352</v>
       </c>
       <c r="P22">
-        <v>0.6021009896685757</v>
+        <v>0.003944779338044274</v>
       </c>
       <c r="Q22">
-        <v>386.0908198719138</v>
+        <v>0.047225117809</v>
       </c>
       <c r="R22">
-        <v>386.0908198719138</v>
+        <v>0.425026060281</v>
       </c>
       <c r="S22">
-        <v>0.03879176904012926</v>
+        <v>4.278173875190378E-06</v>
       </c>
       <c r="T22">
-        <v>0.03879176904012926</v>
+        <v>5.707722952169739E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>55.9859543366913</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>55.9859543366913</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.06442734641821805</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.06442734641821805</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.8372639326572699</v>
+        <v>0.06463666666666668</v>
       </c>
       <c r="N23">
-        <v>0.8372639326572699</v>
+        <v>0.19391</v>
       </c>
       <c r="O23">
-        <v>0.07310066611694117</v>
+        <v>0.005505466704709875</v>
       </c>
       <c r="P23">
-        <v>0.07310066611694117</v>
+        <v>0.007127648985176579</v>
       </c>
       <c r="Q23">
-        <v>46.87502030150849</v>
+        <v>0.08532899667666669</v>
       </c>
       <c r="R23">
-        <v>46.87502030150849</v>
+        <v>0.7679609700900001</v>
       </c>
       <c r="S23">
-        <v>0.004709681939318664</v>
+        <v>7.730044970025497E-06</v>
       </c>
       <c r="T23">
-        <v>0.004709681939318664</v>
+        <v>1.031303457593934E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>55.9859543366913</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>55.9859543366913</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.06442734641821805</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.06442734641821805</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.6897185454941</v>
+        <v>2.689952</v>
       </c>
       <c r="N24">
-        <v>2.6897185454941</v>
+        <v>8.069856</v>
       </c>
       <c r="O24">
-        <v>0.2348366025020147</v>
+        <v>0.2291182688866134</v>
       </c>
       <c r="P24">
-        <v>0.2348366025020147</v>
+        <v>0.2966278218189939</v>
       </c>
       <c r="Q24">
-        <v>150.5864596665844</v>
+        <v>3.551094403616</v>
       </c>
       <c r="R24">
-        <v>150.5864596665844</v>
+        <v>31.959849632544</v>
       </c>
       <c r="S24">
-        <v>0.01512989914107467</v>
+        <v>0.0003216974358291479</v>
       </c>
       <c r="T24">
-        <v>0.01512989914107467</v>
+        <v>0.0004291924292241326</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>55.9859543366913</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>55.9859543366913</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.06442734641821805</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.06442734641821805</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.03038351982162</v>
+        <v>1.099586</v>
       </c>
       <c r="N25">
-        <v>1.03038351982162</v>
+        <v>2.199172</v>
       </c>
       <c r="O25">
-        <v>0.08996174171246844</v>
+        <v>0.09365789456910595</v>
       </c>
       <c r="P25">
-        <v>0.08996174171246844</v>
+        <v>0.08083608928899358</v>
       </c>
       <c r="Q25">
-        <v>57.68700469001247</v>
+        <v>1.451599764938</v>
       </c>
       <c r="R25">
-        <v>57.68700469001247</v>
+        <v>8.709598589627999</v>
       </c>
       <c r="S25">
-        <v>0.005795996297695461</v>
+        <v>0.0001315019735198358</v>
       </c>
       <c r="T25">
-        <v>0.005795996297695461</v>
+        <v>0.0001169621828396559</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H26">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I26">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J26">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.9164455</v>
+      </c>
+      <c r="N26">
+        <v>13.832891</v>
+      </c>
+      <c r="O26">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P26">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q26">
+        <v>167.5122108633003</v>
+      </c>
+      <c r="R26">
+        <v>1005.073265179802</v>
+      </c>
+      <c r="S26">
+        <v>0.01517511014348761</v>
+      </c>
+      <c r="T26">
+        <v>0.01349724235847142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H27">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I27">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J27">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N27">
+        <v>2.802176</v>
+      </c>
+      <c r="O27">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P27">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q27">
+        <v>22.62234732123022</v>
+      </c>
+      <c r="R27">
+        <v>203.601125891072</v>
+      </c>
+      <c r="S27">
+        <v>0.002049382612375944</v>
+      </c>
+      <c r="T27">
+        <v>0.002734182507697921</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H28">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I28">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J28">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.035773</v>
+      </c>
+      <c r="N28">
+        <v>0.107319</v>
+      </c>
+      <c r="O28">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P28">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q28">
+        <v>0.8664008585353333</v>
+      </c>
+      <c r="R28">
+        <v>7.797607726817999</v>
+      </c>
+      <c r="S28">
+        <v>7.848817939257704E-05</v>
+      </c>
+      <c r="T28">
+        <v>0.0001047149545723156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H29">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I29">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J29">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N29">
+        <v>0.19391</v>
+      </c>
+      <c r="O29">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P29">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q29">
+        <v>1.565461758668889</v>
+      </c>
+      <c r="R29">
+        <v>14.08915582802</v>
+      </c>
+      <c r="S29">
+        <v>0.0001418168531761815</v>
+      </c>
+      <c r="T29">
+        <v>0.0001892048643867137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H30">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I30">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J30">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.689952</v>
+      </c>
+      <c r="N30">
+        <v>8.069856</v>
+      </c>
+      <c r="O30">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P30">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q30">
+        <v>65.14904319511466</v>
+      </c>
+      <c r="R30">
+        <v>586.341388756032</v>
+      </c>
+      <c r="S30">
+        <v>0.005901921424913242</v>
+      </c>
+      <c r="T30">
+        <v>0.007874044711981372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>24.21940733333333</v>
+      </c>
+      <c r="H31">
+        <v>72.65822199999999</v>
+      </c>
+      <c r="I31">
+        <v>0.02575927905528127</v>
+      </c>
+      <c r="J31">
+        <v>0.02654519951532467</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.099586</v>
+      </c>
+      <c r="N31">
+        <v>2.199172</v>
+      </c>
+      <c r="O31">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P31">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q31">
+        <v>26.63132123203066</v>
+      </c>
+      <c r="R31">
+        <v>159.787927392184</v>
+      </c>
+      <c r="S31">
+        <v>0.002412559841935712</v>
+      </c>
+      <c r="T31">
+        <v>0.002145810118214935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.986019</v>
+      </c>
+      <c r="H32">
+        <v>111.972038</v>
+      </c>
+      <c r="I32">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J32">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.9164455</v>
+      </c>
+      <c r="N32">
+        <v>13.832891</v>
+      </c>
+      <c r="O32">
+        <v>0.5891123781422892</v>
+      </c>
+      <c r="P32">
+        <v>0.5084626450322738</v>
+      </c>
+      <c r="Q32">
+        <v>387.2242491754645</v>
+      </c>
+      <c r="R32">
+        <v>1548.896996701858</v>
+      </c>
+      <c r="S32">
+        <v>0.03507905842316331</v>
+      </c>
+      <c r="T32">
+        <v>0.02080031265089271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.986019</v>
+      </c>
+      <c r="H33">
+        <v>111.972038</v>
+      </c>
+      <c r="I33">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J33">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.9340586666666667</v>
+      </c>
+      <c r="N33">
+        <v>2.802176</v>
+      </c>
+      <c r="O33">
+        <v>0.07955900504737815</v>
+      </c>
+      <c r="P33">
+        <v>0.1030010155365178</v>
+      </c>
+      <c r="Q33">
+        <v>52.29422625911467</v>
+      </c>
+      <c r="R33">
+        <v>313.765357554688</v>
+      </c>
+      <c r="S33">
+        <v>0.004737389825259525</v>
+      </c>
+      <c r="T33">
+        <v>0.004213590413083421</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.986019</v>
+      </c>
+      <c r="H34">
+        <v>111.972038</v>
+      </c>
+      <c r="I34">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J34">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.035773</v>
+      </c>
+      <c r="N34">
+        <v>0.107319</v>
+      </c>
+      <c r="O34">
+        <v>0.003046986649903352</v>
+      </c>
+      <c r="P34">
+        <v>0.003944779338044274</v>
+      </c>
+      <c r="Q34">
+        <v>2.002787857687</v>
+      </c>
+      <c r="R34">
+        <v>12.016727146122</v>
+      </c>
+      <c r="S34">
+        <v>0.0001814346917028149</v>
+      </c>
+      <c r="T34">
+        <v>0.0001613739856246359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.986019</v>
+      </c>
+      <c r="H35">
+        <v>111.972038</v>
+      </c>
+      <c r="I35">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J35">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06463666666666668</v>
+      </c>
+      <c r="N35">
+        <v>0.19391</v>
+      </c>
+      <c r="O35">
+        <v>0.005505466704709875</v>
+      </c>
+      <c r="P35">
+        <v>0.007127648985176579</v>
+      </c>
+      <c r="Q35">
+        <v>3.618749648096667</v>
+      </c>
+      <c r="R35">
+        <v>21.71249788858</v>
+      </c>
+      <c r="S35">
+        <v>0.0003278263967060151</v>
+      </c>
+      <c r="T35">
+        <v>0.0002915795856509392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.986019</v>
+      </c>
+      <c r="H36">
+        <v>111.972038</v>
+      </c>
+      <c r="I36">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J36">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.689952</v>
+      </c>
+      <c r="N36">
+        <v>8.069856</v>
+      </c>
+      <c r="O36">
+        <v>0.2291182688866134</v>
+      </c>
+      <c r="P36">
+        <v>0.2966278218189939</v>
+      </c>
+      <c r="Q36">
+        <v>150.599703781088</v>
+      </c>
+      <c r="R36">
+        <v>903.5982226865279</v>
+      </c>
+      <c r="S36">
+        <v>0.01364298805846225</v>
+      </c>
+      <c r="T36">
+        <v>0.0121345225555296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.986019</v>
+      </c>
+      <c r="H37">
+        <v>111.972038</v>
+      </c>
+      <c r="I37">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J37">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.099586</v>
+      </c>
+      <c r="N37">
+        <v>2.199172</v>
+      </c>
+      <c r="O37">
+        <v>0.09365789456910595</v>
+      </c>
+      <c r="P37">
+        <v>0.08083608928899358</v>
+      </c>
+      <c r="Q37">
+        <v>61.56144268813399</v>
+      </c>
+      <c r="R37">
+        <v>246.245770752536</v>
+      </c>
+      <c r="S37">
+        <v>0.005576916862179056</v>
+      </c>
+      <c r="T37">
+        <v>0.003306862258445398</v>
       </c>
     </row>
   </sheetData>
